--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl11-Ccr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl11-Ccr3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4541726666666667</v>
+        <v>2.940931333333333</v>
       </c>
       <c r="H2">
-        <v>1.362518</v>
+        <v>8.822794</v>
       </c>
       <c r="I2">
-        <v>0.005326894406580251</v>
+        <v>0.03454096854573427</v>
       </c>
       <c r="J2">
-        <v>0.00532689440658025</v>
+        <v>0.03454096854573427</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1029326666666667</v>
+        <v>0.1808983333333333</v>
       </c>
       <c r="N2">
-        <v>0.308798</v>
+        <v>0.5426949999999999</v>
       </c>
       <c r="O2">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="P2">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="Q2">
-        <v>0.04674920370711112</v>
+        <v>0.5320095766477777</v>
       </c>
       <c r="R2">
-        <v>0.420742833364</v>
+        <v>4.78808618983</v>
       </c>
       <c r="S2">
-        <v>0.0004035945489161811</v>
+        <v>0.003297568169779179</v>
       </c>
       <c r="T2">
-        <v>0.000403594548916181</v>
+        <v>0.003297568169779179</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4541726666666667</v>
+        <v>2.940931333333333</v>
       </c>
       <c r="H3">
-        <v>1.362518</v>
+        <v>8.822794</v>
       </c>
       <c r="I3">
-        <v>0.005326894406580251</v>
+        <v>0.03454096854573427</v>
       </c>
       <c r="J3">
-        <v>0.00532689440658025</v>
+        <v>0.03454096854573427</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.010197333333333</v>
+        <v>1.572737</v>
       </c>
       <c r="N3">
-        <v>3.030592</v>
+        <v>4.718211</v>
       </c>
       <c r="O3">
-        <v>0.7435740030571362</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="P3">
-        <v>0.7435740030571361</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="Q3">
-        <v>0.4588040167395556</v>
+        <v>4.625311522392667</v>
       </c>
       <c r="R3">
-        <v>4.129236150656</v>
+        <v>41.627803701534</v>
       </c>
       <c r="S3">
-        <v>0.003960940197763545</v>
+        <v>0.02866918326482093</v>
       </c>
       <c r="T3">
-        <v>0.003960940197763544</v>
+        <v>0.02866918326482093</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4541726666666667</v>
+        <v>2.940931333333333</v>
       </c>
       <c r="H4">
-        <v>1.362518</v>
+        <v>8.822794</v>
       </c>
       <c r="I4">
-        <v>0.005326894406580251</v>
+        <v>0.03454096854573427</v>
       </c>
       <c r="J4">
-        <v>0.00532689440658025</v>
+        <v>0.03454096854573427</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.24544</v>
+        <v>0.1412166666666667</v>
       </c>
       <c r="N4">
-        <v>0.73632</v>
+        <v>0.42365</v>
       </c>
       <c r="O4">
-        <v>0.1806605474874317</v>
+        <v>0.07452648896413371</v>
       </c>
       <c r="P4">
-        <v>0.1806605474874316</v>
+        <v>0.07452648896413369</v>
       </c>
       <c r="Q4">
-        <v>0.1114721393066667</v>
+        <v>0.4153085197888889</v>
       </c>
       <c r="R4">
-        <v>1.00324925376</v>
+        <v>3.7377766781</v>
       </c>
       <c r="S4">
-        <v>0.0009623596599005255</v>
+        <v>0.002574217111134155</v>
       </c>
       <c r="T4">
-        <v>0.0009623596599005252</v>
+        <v>0.002574217111134154</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>229.479935</v>
       </c>
       <c r="I5">
-        <v>0.8971737490248932</v>
+        <v>0.8984069237831173</v>
       </c>
       <c r="J5">
-        <v>0.8971737490248931</v>
+        <v>0.8984069237831174</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1029326666666667</v>
+        <v>0.1808983333333333</v>
       </c>
       <c r="N5">
-        <v>0.308798</v>
+        <v>0.5426949999999999</v>
       </c>
       <c r="O5">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="P5">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="Q5">
-        <v>7.873660552014445</v>
+        <v>13.83751259164722</v>
       </c>
       <c r="R5">
-        <v>70.86294496813001</v>
+        <v>124.537613324825</v>
       </c>
       <c r="S5">
-        <v>0.06797477233448626</v>
+        <v>0.0857693979094372</v>
       </c>
       <c r="T5">
-        <v>0.06797477233448626</v>
+        <v>0.0857693979094372</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>229.479935</v>
       </c>
       <c r="I6">
-        <v>0.8971737490248932</v>
+        <v>0.8984069237831173</v>
       </c>
       <c r="J6">
-        <v>0.8971737490248931</v>
+        <v>0.8984069237831174</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.010197333333333</v>
+        <v>1.572737</v>
       </c>
       <c r="N6">
-        <v>3.030592</v>
+        <v>4.718211</v>
       </c>
       <c r="O6">
-        <v>0.7435740030571362</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="P6">
-        <v>0.7435740030571361</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="Q6">
-        <v>77.27333946350223</v>
+        <v>120.3038615106983</v>
       </c>
       <c r="R6">
-        <v>695.46005517152</v>
+        <v>1082.734753596285</v>
       </c>
       <c r="S6">
-        <v>0.6671150760002182</v>
+        <v>0.7456824121830562</v>
       </c>
       <c r="T6">
-        <v>0.6671150760002181</v>
+        <v>0.7456824121830563</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,40 +859,40 @@
         <v>229.479935</v>
       </c>
       <c r="I7">
-        <v>0.8971737490248932</v>
+        <v>0.8984069237831173</v>
       </c>
       <c r="J7">
-        <v>0.8971737490248931</v>
+        <v>0.8984069237831174</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.24544</v>
+        <v>0.1412166666666667</v>
       </c>
       <c r="N7">
-        <v>0.73632</v>
+        <v>0.42365</v>
       </c>
       <c r="O7">
-        <v>0.1806605474874317</v>
+        <v>0.07452648896413371</v>
       </c>
       <c r="P7">
-        <v>0.1806605474874316</v>
+        <v>0.07452648896413369</v>
       </c>
       <c r="Q7">
-        <v>18.77451841546667</v>
+        <v>10.80213049586111</v>
       </c>
       <c r="R7">
-        <v>168.9706657392</v>
+        <v>97.21917446275</v>
       </c>
       <c r="S7">
-        <v>0.1620839006901888</v>
+        <v>0.0669551136906238</v>
       </c>
       <c r="T7">
-        <v>0.1620839006901888</v>
+        <v>0.06695511369062379</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.292554666666667</v>
+        <v>1.002166333333333</v>
       </c>
       <c r="H8">
-        <v>3.877664</v>
+        <v>3.006499</v>
       </c>
       <c r="I8">
-        <v>0.01516009819481108</v>
+        <v>0.01177035159063915</v>
       </c>
       <c r="J8">
-        <v>0.01516009819481108</v>
+        <v>0.01177035159063915</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.1029326666666667</v>
+        <v>0.1808983333333333</v>
       </c>
       <c r="N8">
-        <v>0.308798</v>
+        <v>0.5426949999999999</v>
       </c>
       <c r="O8">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="P8">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="Q8">
-        <v>0.1330460986524445</v>
+        <v>0.1812902194227777</v>
       </c>
       <c r="R8">
-        <v>1.197414887872</v>
+        <v>1.631611974805</v>
       </c>
       <c r="S8">
-        <v>0.00114861165351835</v>
+        <v>0.001123695668840611</v>
       </c>
       <c r="T8">
-        <v>0.001148611653518349</v>
+        <v>0.001123695668840611</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.292554666666667</v>
+        <v>1.002166333333333</v>
       </c>
       <c r="H9">
-        <v>3.877664</v>
+        <v>3.006499</v>
       </c>
       <c r="I9">
-        <v>0.01516009819481108</v>
+        <v>0.01177035159063915</v>
       </c>
       <c r="J9">
-        <v>0.01516009819481108</v>
+        <v>0.01177035159063915</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.010197333333333</v>
+        <v>1.572737</v>
       </c>
       <c r="N9">
-        <v>3.030592</v>
+        <v>4.718211</v>
       </c>
       <c r="O9">
-        <v>0.7435740030571362</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="P9">
-        <v>0.7435740030571361</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="Q9">
-        <v>1.305735277454222</v>
+        <v>1.576144072587667</v>
       </c>
       <c r="R9">
-        <v>11.751617497088</v>
+        <v>14.185296653289</v>
       </c>
       <c r="S9">
-        <v>0.01127265490145494</v>
+        <v>0.009769452943874794</v>
       </c>
       <c r="T9">
-        <v>0.01127265490145493</v>
+        <v>0.009769452943874796</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.292554666666667</v>
+        <v>1.002166333333333</v>
       </c>
       <c r="H10">
-        <v>3.877664</v>
+        <v>3.006499</v>
       </c>
       <c r="I10">
-        <v>0.01516009819481108</v>
+        <v>0.01177035159063915</v>
       </c>
       <c r="J10">
-        <v>0.01516009819481108</v>
+        <v>0.01177035159063915</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.24544</v>
+        <v>0.1412166666666667</v>
       </c>
       <c r="N10">
-        <v>0.73632</v>
+        <v>0.42365</v>
       </c>
       <c r="O10">
-        <v>0.1806605474874317</v>
+        <v>0.07452648896413371</v>
       </c>
       <c r="P10">
-        <v>0.1806605474874316</v>
+        <v>0.07452648896413369</v>
       </c>
       <c r="Q10">
-        <v>0.3172446173866666</v>
+        <v>0.1415225890388889</v>
       </c>
       <c r="R10">
-        <v>2.85520155648</v>
+        <v>1.27370330135</v>
       </c>
       <c r="S10">
-        <v>0.002738831639837794</v>
+        <v>0.000877202977923742</v>
       </c>
       <c r="T10">
-        <v>0.002738831639837793</v>
+        <v>0.000877202977923742</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.779585333333333</v>
+        <v>2.356521666666667</v>
       </c>
       <c r="H11">
-        <v>17.338756</v>
+        <v>7.069565</v>
       </c>
       <c r="I11">
-        <v>0.06778752453432524</v>
+        <v>0.02767713065691252</v>
       </c>
       <c r="J11">
-        <v>0.06778752453432522</v>
+        <v>0.02767713065691253</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.1029326666666667</v>
+        <v>0.1808983333333333</v>
       </c>
       <c r="N11">
-        <v>0.308798</v>
+        <v>0.5426949999999999</v>
       </c>
       <c r="O11">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="P11">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="Q11">
-        <v>0.5949081305875555</v>
+        <v>0.4262908419638888</v>
       </c>
       <c r="R11">
-        <v>5.354173175288</v>
+        <v>3.836617577674999</v>
       </c>
       <c r="S11">
-        <v>0.005135952263814297</v>
+        <v>0.002642289111384097</v>
       </c>
       <c r="T11">
-        <v>0.005135952263814296</v>
+        <v>0.002642289111384097</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.779585333333333</v>
+        <v>2.356521666666667</v>
       </c>
       <c r="H12">
-        <v>17.338756</v>
+        <v>7.069565</v>
       </c>
       <c r="I12">
-        <v>0.06778752453432524</v>
+        <v>0.02767713065691252</v>
       </c>
       <c r="J12">
-        <v>0.06778752453432522</v>
+        <v>0.02767713065691253</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.010197333333333</v>
+        <v>1.572737</v>
       </c>
       <c r="N12">
-        <v>3.030592</v>
+        <v>4.718211</v>
       </c>
       <c r="O12">
-        <v>0.7435740030571362</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="P12">
-        <v>0.7435740030571361</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="Q12">
-        <v>5.838521691505778</v>
+        <v>3.706188816468333</v>
       </c>
       <c r="R12">
-        <v>52.546695223552</v>
+        <v>33.355699348215</v>
       </c>
       <c r="S12">
-        <v>0.05040504097532205</v>
+        <v>0.02297216217306715</v>
       </c>
       <c r="T12">
-        <v>0.05040504097532203</v>
+        <v>0.02297216217306715</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.779585333333333</v>
+        <v>2.356521666666667</v>
       </c>
       <c r="H13">
-        <v>17.338756</v>
+        <v>7.069565</v>
       </c>
       <c r="I13">
-        <v>0.06778752453432524</v>
+        <v>0.02767713065691252</v>
       </c>
       <c r="J13">
-        <v>0.06778752453432522</v>
+        <v>0.02767713065691253</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.24544</v>
+        <v>0.1412166666666667</v>
       </c>
       <c r="N13">
-        <v>0.73632</v>
+        <v>0.42365</v>
       </c>
       <c r="O13">
-        <v>0.1806605474874317</v>
+        <v>0.07452648896413371</v>
       </c>
       <c r="P13">
-        <v>0.1806605474874316</v>
+        <v>0.07452648896413369</v>
       </c>
       <c r="Q13">
-        <v>1.418541424213333</v>
+        <v>0.3327801346944445</v>
       </c>
       <c r="R13">
-        <v>12.76687281792</v>
+        <v>2.99502121225</v>
       </c>
       <c r="S13">
-        <v>0.0122465312951889</v>
+        <v>0.002062679372461278</v>
       </c>
       <c r="T13">
-        <v>0.0122465312951889</v>
+        <v>0.002062679372461278</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2778016666666667</v>
+        <v>0.5156633333333334</v>
       </c>
       <c r="H14">
-        <v>0.833405</v>
+        <v>1.54699</v>
       </c>
       <c r="I14">
-        <v>0.003258276538670325</v>
+        <v>0.006056418514425867</v>
       </c>
       <c r="J14">
-        <v>0.003258276538670324</v>
+        <v>0.006056418514425868</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.1029326666666667</v>
+        <v>0.1808983333333333</v>
       </c>
       <c r="N14">
-        <v>0.308798</v>
+        <v>0.5426949999999999</v>
       </c>
       <c r="O14">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="P14">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="Q14">
-        <v>0.02859486635444445</v>
+        <v>0.0932826375611111</v>
       </c>
       <c r="R14">
-        <v>0.25735379719</v>
+        <v>0.8395437380499999</v>
       </c>
       <c r="S14">
-        <v>0.0002468647864024475</v>
+        <v>0.0005781960887862386</v>
       </c>
       <c r="T14">
-        <v>0.0002468647864024474</v>
+        <v>0.0005781960887862387</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>24</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2778016666666667</v>
+        <v>0.5156633333333334</v>
       </c>
       <c r="H15">
-        <v>0.833405</v>
+        <v>1.54699</v>
       </c>
       <c r="I15">
-        <v>0.003258276538670325</v>
+        <v>0.006056418514425867</v>
       </c>
       <c r="J15">
-        <v>0.003258276538670324</v>
+        <v>0.006056418514425868</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.010197333333333</v>
+        <v>1.572737</v>
       </c>
       <c r="N15">
-        <v>3.030592</v>
+        <v>4.718211</v>
       </c>
       <c r="O15">
-        <v>0.7435740030571362</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="P15">
-        <v>0.7435740030571361</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="Q15">
-        <v>0.2806345028622222</v>
+        <v>0.8110028038766668</v>
       </c>
       <c r="R15">
-        <v>2.52571052576</v>
+        <v>7.29902523489</v>
       </c>
       <c r="S15">
-        <v>0.002422769728926243</v>
+        <v>0.005026858818062094</v>
       </c>
       <c r="T15">
-        <v>0.002422769728926242</v>
+        <v>0.005026858818062095</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.5156633333333334</v>
+      </c>
+      <c r="H16">
+        <v>1.54699</v>
+      </c>
+      <c r="I16">
+        <v>0.006056418514425867</v>
+      </c>
+      <c r="J16">
+        <v>0.006056418514425868</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G16">
-        <v>0.2778016666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.833405</v>
-      </c>
-      <c r="I16">
-        <v>0.003258276538670325</v>
-      </c>
-      <c r="J16">
-        <v>0.003258276538670324</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M16">
-        <v>0.24544</v>
+        <v>0.1412166666666667</v>
       </c>
       <c r="N16">
-        <v>0.73632</v>
+        <v>0.42365</v>
       </c>
       <c r="O16">
-        <v>0.1806605474874317</v>
+        <v>0.07452648896413371</v>
       </c>
       <c r="P16">
-        <v>0.1806605474874316</v>
+        <v>0.07452648896413369</v>
       </c>
       <c r="Q16">
-        <v>0.06818364106666666</v>
+        <v>0.07282025705555557</v>
       </c>
       <c r="R16">
-        <v>0.6136527695999999</v>
+        <v>0.6553823135000001</v>
       </c>
       <c r="S16">
-        <v>0.0005886420233416347</v>
+        <v>0.0004513636075775344</v>
       </c>
       <c r="T16">
-        <v>0.0005886420233416344</v>
+        <v>0.0004513636075775344</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>22</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.9628836666666668</v>
+        <v>1.834685</v>
       </c>
       <c r="H17">
-        <v>2.888651</v>
+        <v>5.504055</v>
       </c>
       <c r="I17">
-        <v>0.01129345730072003</v>
+        <v>0.02154820690917088</v>
       </c>
       <c r="J17">
-        <v>0.01129345730072002</v>
+        <v>0.02154820690917089</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1029326666666667</v>
+        <v>0.1808983333333333</v>
       </c>
       <c r="N17">
-        <v>0.308798</v>
+        <v>0.5426949999999999</v>
       </c>
       <c r="O17">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="P17">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="Q17">
-        <v>0.0991121834997778</v>
+        <v>0.3318914586916666</v>
       </c>
       <c r="R17">
-        <v>0.8920096514980002</v>
+        <v>2.987023128225</v>
       </c>
       <c r="S17">
-        <v>0.0008556538682947863</v>
+        <v>0.002057171069925688</v>
       </c>
       <c r="T17">
-        <v>0.000855653868294786</v>
+        <v>0.002057171069925689</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.9628836666666668</v>
+        <v>1.834685</v>
       </c>
       <c r="H18">
-        <v>2.888651</v>
+        <v>5.504055</v>
       </c>
       <c r="I18">
-        <v>0.01129345730072003</v>
+        <v>0.02154820690917088</v>
       </c>
       <c r="J18">
-        <v>0.01129345730072002</v>
+        <v>0.02154820690917089</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.010197333333333</v>
+        <v>1.572737</v>
       </c>
       <c r="N18">
-        <v>3.030592</v>
+        <v>4.718211</v>
       </c>
       <c r="O18">
-        <v>0.7435740030571362</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="P18">
-        <v>0.7435740030571361</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="Q18">
-        <v>0.9727025123768891</v>
+        <v>2.885476982845</v>
       </c>
       <c r="R18">
-        <v>8.754322611392</v>
+        <v>25.969292845605</v>
       </c>
       <c r="S18">
-        <v>0.00839752125345123</v>
+        <v>0.017885123634832</v>
       </c>
       <c r="T18">
-        <v>0.008397521253451227</v>
+        <v>0.01788512363483201</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.9628836666666668</v>
+        <v>1.834685</v>
       </c>
       <c r="H19">
-        <v>2.888651</v>
+        <v>5.504055</v>
       </c>
       <c r="I19">
-        <v>0.01129345730072003</v>
+        <v>0.02154820690917088</v>
       </c>
       <c r="J19">
-        <v>0.01129345730072002</v>
+        <v>0.02154820690917089</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.24544</v>
+        <v>0.1412166666666667</v>
       </c>
       <c r="N19">
-        <v>0.73632</v>
+        <v>0.42365</v>
       </c>
       <c r="O19">
-        <v>0.1806605474874317</v>
+        <v>0.07452648896413371</v>
       </c>
       <c r="P19">
-        <v>0.1806605474874316</v>
+        <v>0.07452648896413369</v>
       </c>
       <c r="Q19">
-        <v>0.2363301671466667</v>
+        <v>0.2590881000833334</v>
       </c>
       <c r="R19">
-        <v>2.12697150432</v>
+        <v>2.33179290075</v>
       </c>
       <c r="S19">
-        <v>0.002040282178974012</v>
+        <v>0.001605912204413194</v>
       </c>
       <c r="T19">
-        <v>0.002040282178974011</v>
+        <v>0.001605912204413194</v>
       </c>
     </row>
   </sheetData>
